--- a/data/trans_camb/P7C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7C_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>32,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,44</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 33,22</t>
+          <t>-16,14; 14,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 15,59</t>
+          <t>-15,78; 15,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 13,51</t>
+          <t>-17,32; 14,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 8,07</t>
+          <t>0,03; 68,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 6,95</t>
+          <t>-14,6; 12,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 6,26</t>
+          <t>-14,72; 11,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 17,62</t>
+          <t>-15,7; 11,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 7,85</t>
+          <t>-9,15; 35,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 6,68</t>
+          <t>-11,58; 8,54</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,54; 9,51</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; 8,19</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 50,28</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>105,2%</t>
+          <t>-5,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,19%</t>
+          <t>261,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,51%</t>
+          <t>-13,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,67%</t>
+          <t>-6,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>-17,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>65,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>-9,36%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-2,64%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-12,58%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>155,1%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,72; 761,32</t>
+          <t>-83,98; 293,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,01; 339,85</t>
+          <t>-83,06; 310,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,86; 294,07</t>
+          <t>-86,6; 267,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 286,95</t>
+          <t>-16,42; 2809,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,36; 217,92</t>
+          <t>-79,79; 216,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,14; 190,37</t>
+          <t>-75,78; 202,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 312,5</t>
+          <t>-82,57; 185,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,64; 148,59</t>
+          <t>-68,44; 719,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-52,97; 126,63</t>
+          <t>-66,14; 103,86</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-61,96; 125,06</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-67,56; 105,94</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-16,37; 660,21</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 9,02</t>
+          <t>-13,67; 14,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 6,27</t>
+          <t>-15,42; 10,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 9,55</t>
+          <t>-14,06; 13,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 8,82</t>
+          <t>-8,14; 19,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 7,58</t>
+          <t>-8,32; 9,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 6,89</t>
+          <t>-9,26; 8,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 6,36</t>
+          <t>-9,77; 8,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 4,94</t>
+          <t>-7,17; 10,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 6,02</t>
+          <t>-7,35; 8,25</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,34; 6,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,51; 7,37</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 12,66</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,12%</t>
+          <t>-9,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>40,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>-2,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-5,03%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,64%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,72; 85,43</t>
+          <t>-68,97; 156,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,97; 60,69</t>
+          <t>-71,05; 120,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,39; 89,03</t>
+          <t>-67,98; 144,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 51,13</t>
+          <t>-45,42; 193,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 45,51</t>
+          <t>-31,59; 51,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 42,42</t>
+          <t>-37,18; 49,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,15; 43,32</t>
+          <t>-38,08; 50,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 33,82</t>
+          <t>-28,91; 66,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,24; 41,14</t>
+          <t>-33,71; 54,46</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-41,08; 42,65</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-39,0; 48,0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-21,5; 81,43</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 7,54</t>
+          <t>-9,94; 10,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 6,27</t>
+          <t>-10,82; 9,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 5,2</t>
+          <t>-10,88; 9,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 7,47</t>
+          <t>-4,61; 16,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 7,9</t>
+          <t>-8,67; 9,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 7,93</t>
+          <t>-8,24; 10,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 5,29</t>
+          <t>-8,45; 9,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 4,52</t>
+          <t>-0,71; 18,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 4,27</t>
+          <t>-6,99; 7,13</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 6,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 6,29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,21; 14,25</t>
         </is>
       </c>
     </row>
@@ -1170,27 +1344,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,58%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,64%</t>
+          <t>-3,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,17 +1374,32 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,69%</t>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-0,49%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-1,51%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>33,11%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 53,84</t>
+          <t>-38,57; 71,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 45,66</t>
+          <t>-42,22; 61,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 37,71</t>
+          <t>-42,22; 65,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 44,56</t>
+          <t>-17,72; 106,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,47; 47,17</t>
+          <t>-33,87; 54,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 46,79</t>
+          <t>-34,34; 57,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 32,68</t>
+          <t>-34,61; 55,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 26,82</t>
+          <t>-3,59; 103,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 25,39</t>
+          <t>-27,22; 41,06</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-30,45; 38,54</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-29,33; 34,88</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 81,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 5,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 5,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 4,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 4,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-1,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-2,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 63,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 42,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 44,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 32,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 27,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 24,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 31,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 18,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 21,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9,79</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,88</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; 8,35</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 6,38</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-9,03; 7,57</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 23,15</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,28; 6,55</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 5,32</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 4,8</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 13,31</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 5,63</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 4,03</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 4,01</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 14,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-1,3%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-5,79%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-3,27%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>58,49%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-0,44%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,17%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>24,13%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-2,96%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-3,67%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>38,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-40,92; 65,71</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-45,85; 47,35</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-42,38; 60,8</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 153,97</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-23,05; 38,88</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-23,79; 31,27</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-26,02; 27,92</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 75,89</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-21,48; 34,25</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-25,47; 24,51</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-25,93; 23,93</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 90,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
